--- a/data/scheduling_DNN/predict/0.5/result24.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result24.xlsx
@@ -570,10 +570,10 @@
         <v>0.9158320426940918</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.8642107248306274</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3192753195762634</v>
+        <v>0.002664760453626513</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.083549022674561</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.5167427062988281</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3242810666561127</v>
+        <v>0.3212693929672241</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9028561115264893</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.4235325455665588</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1513478457927704</v>
+        <v>0.2297510802745819</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9068429470062256</v>
       </c>
       <c r="V5" t="n">
-        <v>0.944080114364624</v>
+        <v>0.8679238557815552</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001386606600135565</v>
+        <v>0.001514695701189339</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8921949863433838</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.4048354029655457</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08523917943239212</v>
+        <v>0.2375193685293198</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9592020511627197</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.5048319697380066</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3086119294166565</v>
+        <v>0.2064521759748459</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9031510353088379</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.3972170352935791</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04865037649869919</v>
+        <v>0.255969226360321</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8834061622619629</v>
       </c>
       <c r="V9" t="n">
-        <v>0.350454181432724</v>
+        <v>0.8937161564826965</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2840377688407898</v>
+        <v>0.0001062959781847894</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.869596004486084</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8721151947975159</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004833245184272528</v>
+        <v>6.346319878502982e-06</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8622729778289795</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.8668279051780701</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04858145490288734</v>
+        <v>2.074736403301358e-05</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8498358726501465</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8591570258140564</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2248951643705368</v>
+        <v>8.688389789313078e-05</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8628380298614502</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.506685733795166</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1281711161136627</v>
+        <v>0.1268444508314133</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8531289100646973</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8596181869506836</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1139898970723152</v>
+        <v>4.211071427562274e-05</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8970530033111572</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.5167734026908875</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1992618590593338</v>
+        <v>0.144612580537796</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8678269386291504</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.412599503993988</v>
       </c>
       <c r="W16" t="n">
-        <v>0.109206460416317</v>
+        <v>0.2072320133447647</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8710651397705078</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.8594524264335632</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1087386384606361</v>
+        <v>0.0001348551159026101</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8639440536499023</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8687048554420471</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1708928495645523</v>
+        <v>2.266523370053619e-05</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8588051795959473</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4925773739814758</v>
       </c>
       <c r="W19" t="n">
-        <v>0.08869311213493347</v>
+        <v>0.1341228038072586</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8584301471710205</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4096996784210205</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1005232185125351</v>
+        <v>0.2013590335845947</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8625400066375732</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.4041291475296021</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2619081735610962</v>
+        <v>0.2101405113935471</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5215189456939697</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.8913275599479675</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01396224554628134</v>
+        <v>0.136758416891098</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5474259853363037</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.3972363770008087</v>
       </c>
       <c r="W23" t="n">
-        <v>0.006594587583094835</v>
+        <v>0.02255691774189472</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5324690341949463</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.885088324546814</v>
       </c>
       <c r="W24" t="n">
-        <v>0.1756549477577209</v>
+        <v>0.1243403628468513</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5443720817565918</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.4069409668445587</v>
       </c>
       <c r="W25" t="n">
-        <v>9.526850772090256e-05</v>
+        <v>0.01888731122016907</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5174431800842285</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.4134026169776917</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01304712612181902</v>
+        <v>0.01082443911582232</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5199580192565918</v>
       </c>
       <c r="V27" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4098793268203735</v>
       </c>
       <c r="W27" t="n">
-        <v>0.06975898891687393</v>
+        <v>0.01211731880903244</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5705280303955078</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.8616579174995422</v>
       </c>
       <c r="W28" t="n">
-        <v>0.03793030604720116</v>
+        <v>0.08475661277770996</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5360360145568848</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.5109833478927612</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01449703797698021</v>
+        <v>0.0006276360945776105</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5123929977416992</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.3972318172454834</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0199569221585989</v>
+        <v>0.01326209772378206</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5140321254730225</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.4976131916046143</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01984364539384842</v>
+        <v>0.0002695813891477883</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5264840126037598</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.5063322782516479</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01514276303350925</v>
+        <v>0.00040609241113998</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5515899658203125</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.3972335755825043</v>
       </c>
       <c r="W33" t="n">
-        <v>0.066832534968853</v>
+        <v>0.02382589504122734</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5347549915313721</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.3972226977348328</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0008409403380937874</v>
+        <v>0.01891513168811798</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5150079727172852</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4033933281898499</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01794442906975746</v>
+        <v>0.01245782896876335</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.513552188873291</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.3995106220245361</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0285722129046917</v>
+        <v>0.01300547923892736</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5116209983825684</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.3996803760528564</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02051506005227566</v>
+        <v>0.01253070309758186</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5144779682159424</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.3972040116786957</v>
       </c>
       <c r="W38" t="n">
-        <v>0.000127485953271389</v>
+        <v>0.01375318132340908</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5155918598175049</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4010126292705536</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02729782275855541</v>
+        <v>0.01312839984893799</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5169968605041504</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.5079141855239868</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0005841102101840079</v>
+        <v>8.249498205259442e-05</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5230939388275146</v>
       </c>
       <c r="V41" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.5150576233863831</v>
       </c>
       <c r="W41" t="n">
-        <v>0.06752166152000427</v>
+        <v>6.458236748585477e-05</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3878488540649414</v>
       </c>
       <c r="V42" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4953254759311676</v>
       </c>
       <c r="W42" t="n">
-        <v>0.156701996922493</v>
+        <v>0.01155122462660074</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4163708686828613</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.4939677119255066</v>
       </c>
       <c r="W43" t="n">
-        <v>0.004301175475120544</v>
+        <v>0.00602127006277442</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3840310573577881</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.5080000162124634</v>
       </c>
       <c r="W44" t="n">
-        <v>0.004422476980835199</v>
+        <v>0.01536830235272646</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.4026141166687012</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.5544142723083496</v>
       </c>
       <c r="W45" t="n">
-        <v>0.06461035460233688</v>
+        <v>0.02304328791797161</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3885538578033447</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8643900752067566</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07521647959947586</v>
+        <v>0.2264201045036316</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3955121040344238</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.3972046673297882</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01130469515919685</v>
+        <v>2.864770522137405e-06</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.390099048614502</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8536478281021118</v>
       </c>
       <c r="W48" t="n">
-        <v>0.07116737961769104</v>
+        <v>0.2148774713277817</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3808498382568359</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.5094423890113831</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0008098848629742861</v>
+        <v>0.0165360439568758</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3873260021209717</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.5169159173965454</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0002666719374246895</v>
+        <v>0.01679354533553123</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3878731727600098</v>
       </c>
       <c r="V51" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.4222878217697144</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1560850739479065</v>
+        <v>0.001184368040412664</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4749269485473633</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.8736255764961243</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01541153714060783</v>
+        <v>0.1589605957269669</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3870069980621338</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4039561152458191</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0002770941937342286</v>
+        <v>0.0002872725599445403</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3869731426239014</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.8596023917198181</v>
       </c>
       <c r="W54" t="n">
-        <v>0.001345283468253911</v>
+        <v>0.2233784049749374</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3853850364685059</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.5410345792770386</v>
       </c>
       <c r="W55" t="n">
-        <v>0.02441179007291794</v>
+        <v>0.02422678098082542</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3874011039733887</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.5159961581230164</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01639346778392792</v>
+        <v>0.01653668843209743</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3864510059356689</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.8771860003471375</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0306687243282795</v>
+        <v>0.2408208400011063</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4420790672302246</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4133152961730957</v>
       </c>
       <c r="W58" t="n">
-        <v>0.009080151095986366</v>
+        <v>0.0008273545536212623</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3854479789733887</v>
       </c>
       <c r="V59" t="n">
-        <v>0.381181538105011</v>
+        <v>0.3993507623672485</v>
       </c>
       <c r="W59" t="n">
-        <v>1.820251782191917e-05</v>
+        <v>0.0001932873856276274</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3869140148162842</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.3975445628166199</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0001329700462520123</v>
+        <v>0.000113008551124949</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3865559101104736</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.4034717381000519</v>
       </c>
       <c r="W61" t="n">
-        <v>0.001279859570786357</v>
+        <v>0.0002861452230717987</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8937709331512451</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.3972229361534119</v>
       </c>
       <c r="W62" t="n">
-        <v>0.007521824445575476</v>
+        <v>0.2465599179267883</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8729770183563232</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.4236719012260437</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1287568956613541</v>
+        <v>0.2018750905990601</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8688240051269531</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.8980685472488403</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1328284293413162</v>
+        <v>0.0008552432409487665</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.880122184753418</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.5091890692710876</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1432914733886719</v>
+        <v>0.1375913769006729</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.923098087310791</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.8898862600326538</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2698834836483002</v>
+        <v>0.001103025511838496</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8765921592712402</v>
       </c>
       <c r="V67" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.8687091469764709</v>
       </c>
       <c r="W67" t="n">
-        <v>0.008612175472080708</v>
+        <v>6.21418803348206e-05</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.886073112487793</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.8843739628791809</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2552009224891663</v>
+        <v>2.887109303628677e-06</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8742110729217529</v>
       </c>
       <c r="V69" t="n">
-        <v>0.672245979309082</v>
+        <v>0.890558660030365</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0407898984849453</v>
+        <v>0.0002672435948625207</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.9114389419555664</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.3995194435119629</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2577914595603943</v>
+        <v>0.2620615661144257</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.863980770111084</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8768149614334106</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2121469676494598</v>
+        <v>0.0001647164608584717</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8579771518707275</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.8705539107322693</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2321375459432602</v>
+        <v>0.0001581748656462878</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8670721054077148</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.3993919491767883</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2148081213235855</v>
+        <v>0.2187247276306152</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.9190080165863037</v>
       </c>
       <c r="V74" t="n">
-        <v>0.466268926858902</v>
+        <v>0.5068806409835815</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2049726843833923</v>
+        <v>0.1698489785194397</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8657910823822021</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.5054622888565063</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1237692534923553</v>
+        <v>0.129836842417717</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8570520877838135</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.3981658220291138</v>
       </c>
       <c r="W76" t="n">
-        <v>0.002408485161140561</v>
+        <v>0.2105766087770462</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8620641231536865</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4033610820770264</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1073144599795341</v>
+        <v>0.210408478975296</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9132330417633057</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.5078846216201782</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1672175526618958</v>
+        <v>0.1643073409795761</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8653810024261475</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.897554337978363</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1738449037075043</v>
+        <v>0.001035123481415212</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8517961502075195</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.505897581577301</v>
       </c>
       <c r="W80" t="n">
-        <v>0.04290370643138885</v>
+        <v>0.119645819067955</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8566889762878418</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.87245112657547</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1435575485229492</v>
+        <v>0.0002484453725628555</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.6077280044555664</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4035902619361877</v>
       </c>
       <c r="W82" t="n">
-        <v>0.04167447984218597</v>
+        <v>0.04167221859097481</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5324530601501465</v>
       </c>
       <c r="V83" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4185240864753723</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0632312074303627</v>
+        <v>0.01297981105744839</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5195989608764648</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4978109002113342</v>
       </c>
       <c r="W84" t="n">
-        <v>0.09058851003646851</v>
+        <v>0.0004747195926029235</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5172631740570068</v>
       </c>
       <c r="V85" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.4229077398777008</v>
       </c>
       <c r="W85" t="n">
-        <v>0.01557648926973343</v>
+        <v>0.008902948349714279</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5184378623962402</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.4009471833705902</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0150992264971137</v>
+        <v>0.01380405947566032</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5135190486907959</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4993730187416077</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0002681154292076826</v>
+        <v>0.000200110167497769</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5161938667297363</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.5147168636322021</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0002643923799041659</v>
+        <v>2.181538093282143e-06</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.51385498046875</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.4991727471351624</v>
       </c>
       <c r="W89" t="n">
-        <v>2.639822582750639e-09</v>
+        <v>0.0002155679685529321</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.52976393699646</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.4032015204429626</v>
       </c>
       <c r="W90" t="n">
-        <v>5.800048165838234e-05</v>
+        <v>0.01601804606616497</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5083980560302734</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.4903461337089539</v>
       </c>
       <c r="W91" t="n">
-        <v>0.03315218165516853</v>
+        <v>0.0003258718934375793</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5183050632476807</v>
       </c>
       <c r="V92" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.5086547136306763</v>
       </c>
       <c r="W92" t="n">
-        <v>0.08531124144792557</v>
+        <v>9.312924521509558e-05</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5741360187530518</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.4040787220001221</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0001783883199095726</v>
+        <v>0.02891948446631432</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5157358646392822</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.3971908986568451</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0001665421441430226</v>
+        <v>0.01405290886759758</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5177850723266602</v>
       </c>
       <c r="V95" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.4990299046039581</v>
       </c>
       <c r="W95" t="n">
-        <v>0.02800297923386097</v>
+        <v>0.00035175631637685</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5170001983642578</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.880131721496582</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0001671395875746384</v>
+        <v>0.1318645030260086</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5156979560852051</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.3975138962268829</v>
       </c>
       <c r="W97" t="n">
-        <v>3.784953150898218e-06</v>
+        <v>0.01396747212857008</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5150308609008789</v>
       </c>
       <c r="V98" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.88353031873703</v>
       </c>
       <c r="W98" t="n">
-        <v>0.1858859658241272</v>
+        <v>0.1357918530702591</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5117359161376953</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4957805871963501</v>
       </c>
       <c r="W99" t="n">
-        <v>3.670109208542272e-06</v>
+        <v>0.0002545725146774203</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5169169902801514</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.5288291573524475</v>
       </c>
       <c r="W100" t="n">
-        <v>0.03285038843750954</v>
+        <v>0.000141899727168493</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5151300430297852</v>
       </c>
       <c r="V101" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.4224312901496887</v>
       </c>
       <c r="W101" t="n">
-        <v>0.1870884299278259</v>
+        <v>0.00859305914491415</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4011440277099609</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4896953403949738</v>
       </c>
       <c r="W102" t="n">
-        <v>0.005881893914192915</v>
+        <v>0.00784133467823267</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3933029174804688</v>
       </c>
       <c r="V103" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.8624014258384705</v>
       </c>
       <c r="W103" t="n">
-        <v>0.001808425760827959</v>
+        <v>0.2200534045696259</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4623069763183594</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.3993992209434509</v>
       </c>
       <c r="W104" t="n">
-        <v>0.005603637080639601</v>
+        <v>0.003957385662943125</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4016380310058594</v>
       </c>
       <c r="V105" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8729120492935181</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01687660627067089</v>
+        <v>0.2220991998910904</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3869550228118896</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.8973624110221863</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0647178515791893</v>
+        <v>0.2605156898498535</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3876049518585205</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.400968611240387</v>
       </c>
       <c r="W107" t="n">
-        <v>0.03038928471505642</v>
+        <v>0.0001785873901098967</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3848268985748291</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.8700056672096252</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01370732951909304</v>
+        <v>0.2353984415531158</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3837590217590332</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.8972349762916565</v>
       </c>
       <c r="W109" t="n">
-        <v>0.008810102939605713</v>
+        <v>0.2636575698852539</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3923969268798828</v>
       </c>
       <c r="V110" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.4048225879669189</v>
       </c>
       <c r="W110" t="n">
-        <v>0.1777563989162445</v>
+        <v>0.0001543970574857667</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3905560970306396</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.50779128074646</v>
       </c>
       <c r="W111" t="n">
-        <v>0.06977561116218567</v>
+        <v>0.01374408788979053</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4197750091552734</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.3975373208522797</v>
       </c>
       <c r="W112" t="n">
-        <v>0.06901653110980988</v>
+        <v>0.0004945147666148841</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3878428936004639</v>
       </c>
       <c r="V113" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.8720763325691223</v>
       </c>
       <c r="W113" t="n">
-        <v>0.3136553466320038</v>
+        <v>0.2344820201396942</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3895189762115479</v>
       </c>
       <c r="V114" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8743550777435303</v>
       </c>
       <c r="W114" t="n">
-        <v>0.07130832970142365</v>
+        <v>0.2350660413503647</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3900959491729736</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.5160489082336426</v>
       </c>
       <c r="W115" t="n">
-        <v>0.03489277139306068</v>
+        <v>0.01586414873600006</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3928630352020264</v>
       </c>
       <c r="V116" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.5168812274932861</v>
       </c>
       <c r="W116" t="n">
-        <v>0.1521105915307999</v>
+        <v>0.01538051199167967</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3898940086364746</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.5158217549324036</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0001885167002910748</v>
+        <v>0.01585779711604118</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4062461853027344</v>
       </c>
       <c r="V118" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.5167109966278076</v>
       </c>
       <c r="W118" t="n">
-        <v>0.2874835133552551</v>
+        <v>0.01220247428864241</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3928899765014648</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.497029572725296</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0001144654961535707</v>
+        <v>0.01084505580365658</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4058489799499512</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.858720064163208</v>
       </c>
       <c r="W120" t="n">
-        <v>0.018367700278759</v>
+        <v>0.2050922214984894</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3893370628356934</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.39723801612854</v>
       </c>
       <c r="W121" t="n">
-        <v>0.01293737720698118</v>
+        <v>6.242506060516462e-05</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9344758987426758</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.4027479290962219</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2817424833774567</v>
+        <v>0.2827346324920654</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.923220157623291</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.8628247976303101</v>
       </c>
       <c r="W123" t="n">
-        <v>0.09923893213272095</v>
+        <v>0.003647599602118134</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.886603832244873</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.8725565671920776</v>
       </c>
       <c r="W124" t="n">
-        <v>0.0537266880273819</v>
+        <v>0.000197325658518821</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8658430576324463</v>
       </c>
       <c r="V125" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.501758337020874</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2363489717245102</v>
+        <v>0.1325576901435852</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9301521778106689</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.8617298603057861</v>
       </c>
       <c r="W126" t="n">
-        <v>0.3356682360172272</v>
+        <v>0.004681613761931658</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8670220375061035</v>
       </c>
       <c r="V127" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8647536039352417</v>
       </c>
       <c r="W127" t="n">
-        <v>0.003265632782131433</v>
+        <v>5.145790964888874e-06</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8588049411773682</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.4040445983409882</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1006145179271698</v>
+        <v>0.2068069726228714</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8632090091705322</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.496848464012146</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1324637830257416</v>
+        <v>0.1342200487852097</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9286599159240723</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.4300088286399841</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1155333966016769</v>
+        <v>0.2486529052257538</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8627760410308838</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.8703939318656921</v>
       </c>
       <c r="W131" t="n">
-        <v>0.07519327104091644</v>
+        <v>5.803225940326229e-05</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8678469657897949</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.4054532945156097</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1112726479768753</v>
+        <v>0.2138079106807709</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8895740509033203</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.5168492794036865</v>
       </c>
       <c r="W133" t="n">
-        <v>0.121256411075592</v>
+        <v>0.1389237493276596</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9131011962890625</v>
       </c>
       <c r="V134" t="n">
-        <v>0.54131019115448</v>
+        <v>0.8650065064430237</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1382285505533218</v>
+        <v>0.002313099103048444</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8853030204772949</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.4221316277980804</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2839548289775848</v>
+        <v>0.2145277410745621</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8666760921478271</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.8730840086936951</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1147633567452431</v>
+        <v>4.106139385839924e-05</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8663780689239502</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.8644449710845947</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2355219721794128</v>
+        <v>3.736867256520782e-06</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9638628959655762</v>
       </c>
       <c r="V138" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.8651579618453979</v>
       </c>
       <c r="W138" t="n">
-        <v>0.0003876271366607398</v>
+        <v>0.00974266417324543</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8622651100158691</v>
       </c>
       <c r="V139" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.4052512049674988</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2259429097175598</v>
+        <v>0.2088617086410522</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8692471981048584</v>
       </c>
       <c r="V140" t="n">
-        <v>0.672019362449646</v>
+        <v>0.4246104955673218</v>
       </c>
       <c r="W140" t="n">
-        <v>0.03889881819486618</v>
+        <v>0.1977017968893051</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8623571395874023</v>
       </c>
       <c r="V141" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.4236084222793579</v>
       </c>
       <c r="W141" t="n">
-        <v>0.007938364520668983</v>
+        <v>0.1925004422664642</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.6044659614562988</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.8731064200401306</v>
       </c>
       <c r="W142" t="n">
-        <v>0.00866285152733326</v>
+        <v>0.07216769456863403</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5224449634552002</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.5108108520507812</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0003585058148019016</v>
+        <v>0.0001353525440208614</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5226070880889893</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.8600178956985474</v>
       </c>
       <c r="W144" t="n">
-        <v>6.858668348286301e-05</v>
+        <v>0.113846056163311</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5178959369659424</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.8645772337913513</v>
       </c>
       <c r="W145" t="n">
-        <v>0.001625431585125625</v>
+        <v>0.1201879233121872</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5190908908843994</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.5259597897529602</v>
       </c>
       <c r="W146" t="n">
-        <v>2.103997394442558e-05</v>
+        <v>4.718177297036164e-05</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5860030651092529</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.5168583989143372</v>
       </c>
       <c r="W147" t="n">
-        <v>6.47823435429018e-06</v>
+        <v>0.004780984949320555</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5164039134979248</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.5168734788894653</v>
       </c>
       <c r="W148" t="n">
-        <v>0.001956344349309802</v>
+        <v>2.204916569326087e-07</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5191459655761719</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.4998268485069275</v>
       </c>
       <c r="W149" t="n">
-        <v>0.02339309826493263</v>
+        <v>0.0003732282784767449</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5155618190765381</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.4115819036960602</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01943794637918472</v>
+        <v>0.010811822488904</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5148890018463135</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.3971916437149048</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01245514769107103</v>
+        <v>0.01385266799479723</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5184359550476074</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4229916036128998</v>
       </c>
       <c r="W152" t="n">
-        <v>0.02811105363070965</v>
+        <v>0.009109624661505222</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5217199325561523</v>
       </c>
       <c r="V153" t="n">
-        <v>0.504324197769165</v>
+        <v>0.4934437870979309</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0003026115882676095</v>
+        <v>0.0007995404303073883</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5131559371948242</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.5014630556106567</v>
       </c>
       <c r="W154" t="n">
-        <v>1.633850502003042e-06</v>
+        <v>0.0001367234799545258</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.518787145614624</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.5167864561080933</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0003358132962603122</v>
+        <v>4.002758487331448e-06</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5176479816436768</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.3993573188781738</v>
       </c>
       <c r="W156" t="n">
-        <v>5.457570750877494e-06</v>
+        <v>0.01399268116801977</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5177152156829834</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.5158762335777283</v>
       </c>
       <c r="W157" t="n">
-        <v>0.005049837287515402</v>
+        <v>3.381855094630737e-06</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5725910663604736</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.4128595888614655</v>
       </c>
       <c r="W158" t="n">
-        <v>0.00989551842212677</v>
+        <v>0.0255141444504261</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5187699794769287</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.8615592122077942</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01890755817294121</v>
+        <v>0.1175044551491737</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5169379711151123</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.8604117035865784</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0274424534291029</v>
+        <v>0.1179742068052292</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5167171955108643</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.4034649729728699</v>
       </c>
       <c r="W161" t="n">
-        <v>0.02749658934772015</v>
+        <v>0.01282606553286314</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3881561756134033</v>
       </c>
       <c r="V162" t="n">
-        <v>0.541418194770813</v>
+        <v>0.5012660026550293</v>
       </c>
       <c r="W162" t="n">
-        <v>0.02348924614489079</v>
+        <v>0.01279383338987827</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3847639560699463</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4963665008544922</v>
       </c>
       <c r="W163" t="n">
-        <v>0.02049710229039192</v>
+        <v>0.01245512813329697</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4290227890014648</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.4117163419723511</v>
       </c>
       <c r="W164" t="n">
-        <v>0.005649782251566648</v>
+        <v>0.0002995131071656942</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3951821327209473</v>
       </c>
       <c r="V165" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.4970543384552002</v>
       </c>
       <c r="W165" t="n">
-        <v>0.1703290194272995</v>
+        <v>0.01037794630974531</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3900890350341797</v>
       </c>
       <c r="V166" t="n">
-        <v>0.654166579246521</v>
+        <v>0.5135250687599182</v>
       </c>
       <c r="W166" t="n">
-        <v>0.06973695009946823</v>
+        <v>0.01523645408451557</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3875689506530762</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.4051885604858398</v>
       </c>
       <c r="W167" t="n">
-        <v>0.08700317144393921</v>
+        <v>0.0003104506467934698</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3894119262695312</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.5091695785522461</v>
       </c>
       <c r="W168" t="n">
-        <v>0.07005716115236282</v>
+        <v>0.01434189546853304</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3889319896697998</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.8806289434432983</v>
       </c>
       <c r="W169" t="n">
-        <v>0.02197984233498573</v>
+        <v>0.2417659014463425</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4485461711883545</v>
       </c>
       <c r="V170" t="n">
-        <v>0.782903790473938</v>
+        <v>0.3972155451774597</v>
       </c>
       <c r="W170" t="n">
-        <v>0.1117950156331062</v>
+        <v>0.002634833101183176</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3905320167541504</v>
       </c>
       <c r="V171" t="n">
-        <v>0.375304102897644</v>
+        <v>0.5073797702789307</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0002318893675692379</v>
+        <v>0.01365339756011963</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3975460529327393</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8726879954338074</v>
       </c>
       <c r="W172" t="n">
-        <v>0.06980672478675842</v>
+        <v>0.2257598638534546</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3932430744171143</v>
       </c>
       <c r="V173" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.4120809435844421</v>
       </c>
       <c r="W173" t="n">
-        <v>0.1517864316701889</v>
+        <v>0.0003548653039615601</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3954341411590576</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.4053674042224884</v>
       </c>
       <c r="W174" t="n">
-        <v>6.789734470658004e-05</v>
+        <v>9.866971231531352e-05</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3906009197235107</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.8723673820495605</v>
       </c>
       <c r="W175" t="n">
-        <v>0.0001103992908610962</v>
+        <v>0.2320989221334457</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.402489185333252</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.8866102695465088</v>
       </c>
       <c r="W176" t="n">
-        <v>0.07893930375576019</v>
+        <v>0.2343732267618179</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.407020092010498</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4034798145294189</v>
       </c>
       <c r="W177" t="n">
-        <v>0.05588293448090553</v>
+        <v>1.253356458619237e-05</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4001131057739258</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.41390261054039</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01804391667246819</v>
+        <v>0.0001901504438137636</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3924248218536377</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.494663268327713</v>
       </c>
       <c r="W179" t="n">
-        <v>0.06767601519823074</v>
+        <v>0.0104526998475194</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3933250904083252</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8669648170471191</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0002317142207175493</v>
+        <v>0.2243345975875854</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4109649658203125</v>
       </c>
       <c r="V181" t="n">
-        <v>0.514474630355835</v>
+        <v>0.8672134876251221</v>
       </c>
       <c r="W181" t="n">
-        <v>0.01071425061672926</v>
+        <v>0.20816271007061</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.930757999420166</v>
       </c>
       <c r="V182" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.4043181538581848</v>
       </c>
       <c r="W182" t="n">
-        <v>0.3085241317749023</v>
+        <v>0.2771389186382294</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9007179737091064</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.5410020351409912</v>
       </c>
       <c r="W183" t="n">
-        <v>0.08555228263139725</v>
+        <v>0.1293955594301224</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8538830280303955</v>
       </c>
       <c r="V184" t="n">
-        <v>0.350784033536911</v>
+        <v>0.3971587419509888</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2531085610389709</v>
+        <v>0.2085970789194107</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8625741004943848</v>
       </c>
       <c r="V185" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.8714753389358521</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2376877665519714</v>
+        <v>7.92320424807258e-05</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9210469722747803</v>
       </c>
       <c r="V186" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.8782040476799011</v>
       </c>
       <c r="W186" t="n">
-        <v>0.01325806137174368</v>
+        <v>0.001835516188293695</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8796489238739014</v>
       </c>
       <c r="V187" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.8794674277305603</v>
       </c>
       <c r="W187" t="n">
-        <v>0.004041844978928566</v>
+        <v>3.294085004768021e-08</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8608701229095459</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.8641074299812317</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1271940320730209</v>
+        <v>1.048015747073805e-05</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8589789867401123</v>
       </c>
       <c r="V189" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.403958797454834</v>
       </c>
       <c r="W189" t="n">
-        <v>0.005695734638720751</v>
+        <v>0.2070433795452118</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9136989116668701</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4041359722614288</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2896134555339813</v>
+        <v>0.2596544325351715</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.908707857131958</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.8669182658195496</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1560217887163162</v>
+        <v>0.001746369991451502</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8630239963531494</v>
       </c>
       <c r="V192" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.5100198984146118</v>
       </c>
       <c r="W192" t="n">
-        <v>0.002804020652547479</v>
+        <v>0.1246118918061256</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.854511022567749</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4926275312900543</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1159454435110092</v>
+        <v>0.1309596598148346</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9141519069671631</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.8696866631507874</v>
       </c>
       <c r="W194" t="n">
-        <v>0.170036792755127</v>
+        <v>0.001977158011868596</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.863649845123291</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.4227080345153809</v>
       </c>
       <c r="W195" t="n">
-        <v>0.08268498629331589</v>
+        <v>0.1944296807050705</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8595011234283447</v>
       </c>
       <c r="V196" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.4053502678871155</v>
       </c>
       <c r="W196" t="n">
-        <v>0.007133817300200462</v>
+        <v>0.2062529921531677</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8564651012420654</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.8700656294822693</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2557179033756256</v>
+        <v>0.0001849743712227792</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.91792893409729</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.499238908290863</v>
       </c>
       <c r="W198" t="n">
-        <v>0.07623972743749619</v>
+        <v>0.1753013432025909</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8616671562194824</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.8609407544136047</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1210258081555367</v>
+        <v>5.276596084513585e-07</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8541388511657715</v>
       </c>
       <c r="V200" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.4978909492492676</v>
       </c>
       <c r="W200" t="n">
-        <v>0.00290995417162776</v>
+        <v>0.1269125640392303</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8800570964813232</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4975784718990326</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1412761360406876</v>
+        <v>0.1462898999452591</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5678768157958984</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4906733930110931</v>
       </c>
       <c r="W202" t="n">
-        <v>0.02698645927011967</v>
+        <v>0.005960368551313877</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.514833927154541</v>
       </c>
       <c r="V203" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.8730979561805725</v>
       </c>
       <c r="W203" t="n">
-        <v>0.07217343151569366</v>
+        <v>0.1283531188964844</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5260651111602783</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.4122292399406433</v>
       </c>
       <c r="W204" t="n">
-        <v>0.000148366205394268</v>
+        <v>0.01295860577374697</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.517125129699707</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.8731113076210022</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0004132681933697313</v>
+        <v>0.1267261654138565</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5141780376434326</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.497906893491745</v>
       </c>
       <c r="W206" t="n">
-        <v>0.03352730721235275</v>
+        <v>0.00026475012418814</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5359299182891846</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.5091005563735962</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001509605790488422</v>
+        <v>0.0007198146777227521</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5157561302185059</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.5067577362060547</v>
       </c>
       <c r="W208" t="n">
-        <v>0.001453593489713967</v>
+        <v>8.097109821392223e-05</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5315990447998047</v>
       </c>
       <c r="V209" t="n">
-        <v>0.654965877532959</v>
+        <v>0.4052251577377319</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01521937549114227</v>
+        <v>0.01597035862505436</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.51698899269104</v>
       </c>
       <c r="V210" t="n">
-        <v>0.946087121963501</v>
+        <v>0.5054863095283508</v>
       </c>
       <c r="W210" t="n">
-        <v>0.1841251999139786</v>
+        <v>0.0001323117176070809</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5223329067230225</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8788778781890869</v>
       </c>
       <c r="W211" t="n">
-        <v>0.02943445555865765</v>
+        <v>0.1271243095397949</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.520453929901123</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.8690751194953918</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01846518740057945</v>
+        <v>0.1215367317199707</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5225491523742676</v>
       </c>
       <c r="V213" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.5070267915725708</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01998924277722836</v>
+        <v>0.0002409436856396496</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5179979801177979</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8917011022567749</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02741239592432976</v>
+        <v>0.1396540254354477</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5212459564208984</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.3972192108631134</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0003413188678678125</v>
+        <v>0.01538263354450464</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5182290077209473</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.5166616439819336</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01826667040586472</v>
+        <v>2.456629090374918e-06</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5201139450073242</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.8710939884185791</v>
       </c>
       <c r="W217" t="n">
-        <v>5.754924131906591e-05</v>
+        <v>0.1231869906187057</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5731589794158936</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8714072704315186</v>
       </c>
       <c r="W218" t="n">
-        <v>0.006343768909573555</v>
+        <v>0.08895204216241837</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5226938724517822</v>
       </c>
       <c r="V219" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.8958996534347534</v>
       </c>
       <c r="W219" t="n">
-        <v>0.1807751655578613</v>
+        <v>0.1392825543880463</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5205881595611572</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.5166627168655396</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01368497218936682</v>
+        <v>1.540910125186201e-05</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5168888568878174</v>
       </c>
       <c r="V221" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.4120206832885742</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0831684023141861</v>
+        <v>0.01099733356386423</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3887159824371338</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.8614912629127502</v>
       </c>
       <c r="W222" t="n">
-        <v>0.00143942516297102</v>
+        <v>0.2235164642333984</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3898229598999023</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.4892711043357849</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0001903502270579338</v>
+        <v>0.009889933280646801</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4194519519805908</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.8725069165229797</v>
       </c>
       <c r="W224" t="n">
-        <v>0.002187885111197829</v>
+        <v>0.2052588015794754</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3898060321807861</v>
       </c>
       <c r="V225" t="n">
-        <v>0.656647801399231</v>
+        <v>0.8749135136604309</v>
       </c>
       <c r="W225" t="n">
-        <v>0.0712045282125473</v>
+        <v>0.235329270362854</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3921728134155273</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.5463013648986816</v>
       </c>
       <c r="W226" t="n">
-        <v>0.007395009975880384</v>
+        <v>0.02375560998916626</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3946051597595215</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8935564160346985</v>
       </c>
       <c r="W227" t="n">
-        <v>0.02117051184177399</v>
+        <v>0.2489523589611053</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3947889804840088</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.5168102383613586</v>
       </c>
       <c r="W228" t="n">
-        <v>0.0117636127397418</v>
+        <v>0.01488918717950583</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4008910655975342</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.8981224298477173</v>
       </c>
       <c r="W229" t="n">
-        <v>0.05859803780913353</v>
+        <v>0.2472390234470367</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4470059871673584</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.4052814841270447</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0009638913325034082</v>
+        <v>0.001740934210829437</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3917229175567627</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.8790798783302307</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0001409690012224019</v>
+        <v>0.2375168055295944</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.395392894744873</v>
       </c>
       <c r="V232" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.4133202731609344</v>
       </c>
       <c r="W232" t="n">
-        <v>0.14952751994133</v>
+        <v>0.0003213908930774778</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3932290077209473</v>
       </c>
       <c r="V233" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.5069253444671631</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1715121269226074</v>
+        <v>0.01292685698717833</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3940830230712891</v>
       </c>
       <c r="V234" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4033782184123993</v>
       </c>
       <c r="W234" t="n">
-        <v>0.1746356040239334</v>
+        <v>8.640065789222717e-05</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3967359066009521</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.3972397446632385</v>
       </c>
       <c r="W235" t="n">
-        <v>0.002677334938198328</v>
+        <v>2.538527894557774e-07</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4329109191894531</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.8630267977714539</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0003152083372697234</v>
+        <v>0.1849996745586395</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3919219970703125</v>
       </c>
       <c r="V237" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4982239603996277</v>
       </c>
       <c r="W237" t="n">
-        <v>0.0150085436180234</v>
+        <v>0.0113001074641943</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3912811279296875</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.8787002563476562</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01291821151971817</v>
+        <v>0.2375774085521698</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3863692283630371</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.5065017938613892</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0002456190122757107</v>
+        <v>0.01443183328956366</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3880109786987305</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.5168534517288208</v>
       </c>
       <c r="W240" t="n">
-        <v>0.07223287969827652</v>
+        <v>0.01660038344562054</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3915109634399414</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4939800202846527</v>
       </c>
       <c r="W241" t="n">
-        <v>0.00348758464679122</v>
+        <v>0.01049990765750408</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9688770771026611</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4129249453544617</v>
       </c>
       <c r="W242" t="n">
-        <v>0.3457969129085541</v>
+        <v>0.3090827763080597</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8873858451843262</v>
       </c>
       <c r="V243" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.5031932592391968</v>
       </c>
       <c r="W243" t="n">
-        <v>0.00303503405302763</v>
+        <v>0.1476039439439774</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8699460029602051</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4218336939811707</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2176922559738159</v>
+        <v>0.2008046358823776</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8767621517181396</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.5069339871406555</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1173115819692612</v>
+        <v>0.1367728710174561</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.924044132232666</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.4235851764678955</v>
       </c>
       <c r="W246" t="n">
-        <v>0.3286291658878326</v>
+        <v>0.2504591643810272</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8731060028076172</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.3972062170505524</v>
       </c>
       <c r="W247" t="n">
-        <v>0.03334577009081841</v>
+        <v>0.2264806032180786</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8666858673095703</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.8637664914131165</v>
       </c>
       <c r="W248" t="n">
-        <v>0.131944552063942</v>
+        <v>8.522755706508178e-06</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8703219890594482</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.3975369036197662</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1110808625817299</v>
+        <v>0.223525732755661</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9223520755767822</v>
       </c>
       <c r="V250" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.399524599313736</v>
       </c>
       <c r="W250" t="n">
-        <v>0.01936418935656548</v>
+        <v>0.2733485996723175</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8985769748687744</v>
       </c>
       <c r="V251" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.8754186034202576</v>
       </c>
       <c r="W251" t="n">
-        <v>0.001924114301800728</v>
+        <v>0.0005363101954571903</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.868959903717041</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.8671405911445618</v>
       </c>
       <c r="W252" t="n">
-        <v>0.05095933377742767</v>
+        <v>3.309898147563217e-06</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.867455005645752</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.8625470995903015</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1736865341663361</v>
+        <v>2.408754153293557e-05</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9238629341125488</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.8645888566970825</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2706243097782135</v>
+        <v>0.003513416275382042</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8743441104888916</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.5068089365959167</v>
       </c>
       <c r="W255" t="n">
-        <v>0.04818587750196457</v>
+        <v>0.1350821107625961</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8645691871643066</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.4899868369102478</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1300954669713974</v>
+        <v>0.1403119415044785</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.872567892074585</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4236559271812439</v>
       </c>
       <c r="W257" t="n">
-        <v>0.05359425023198128</v>
+        <v>0.2015219479799271</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9221258163452148</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8817667365074158</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1191679388284683</v>
+        <v>0.001628855359740555</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8719618320465088</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.8728691339492798</v>
       </c>
       <c r="W259" t="n">
-        <v>0.05257631465792656</v>
+        <v>8.231967285610153e-07</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8595550060272217</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.5168954133987427</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1293700486421585</v>
+        <v>0.1174155995249748</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8714239597320557</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.4996331930160522</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1375302225351334</v>
+        <v>0.1382283717393875</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5803899765014648</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.5027452111244202</v>
       </c>
       <c r="W262" t="n">
-        <v>0.004431364592164755</v>
+        <v>0.006028709467500448</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5359330177307129</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.3972089290618896</v>
       </c>
       <c r="W263" t="n">
-        <v>1.388400596624706e-05</v>
+        <v>0.01924437284469604</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5241751670837402</v>
       </c>
       <c r="V264" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.8914119601249695</v>
       </c>
       <c r="W264" t="n">
-        <v>0.08078723400831223</v>
+        <v>0.1348628550767899</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5201199054718018</v>
       </c>
       <c r="V265" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.5074930191040039</v>
       </c>
       <c r="W265" t="n">
-        <v>0.08339015394449234</v>
+        <v>0.0001594382629264146</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5223581790924072</v>
       </c>
       <c r="V266" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.8966864347457886</v>
       </c>
       <c r="W266" t="n">
-        <v>0.06807821244001389</v>
+        <v>0.1401216387748718</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5622568130493164</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.8646897673606873</v>
       </c>
       <c r="W267" t="n">
-        <v>0.008209140039980412</v>
+        <v>0.09146568924188614</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.522320032119751</v>
       </c>
       <c r="V268" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.397235631942749</v>
       </c>
       <c r="W268" t="n">
-        <v>0.1797361969947815</v>
+        <v>0.01564610749483109</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5264480113983154</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4235230088233948</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01509459037333727</v>
+        <v>0.01059355586767197</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5224809646606445</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.4114560186862946</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02947975508868694</v>
+        <v>0.01232653856277466</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5219118595123291</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.3972349464893341</v>
       </c>
       <c r="W271" t="n">
-        <v>5.450852404464968e-05</v>
+        <v>0.01554433256387711</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5325601100921631</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.4952508211135864</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01669181883335114</v>
+        <v>0.001391983008943498</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5309820175170898</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8672986626625061</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01244023162871599</v>
+        <v>0.1131088882684708</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5350761413574219</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.5067735910415649</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01882030628621578</v>
+        <v>0.0008010343299247324</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5228230953216553</v>
       </c>
       <c r="V275" t="n">
-        <v>0.534324586391449</v>
+        <v>0.8612861037254333</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0001322843017987907</v>
+        <v>0.1145572066307068</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5218360424041748</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.5169032216072083</v>
       </c>
       <c r="W276" t="n">
-        <v>5.25341420143377e-05</v>
+        <v>2.433272129565012e-05</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5197210311889648</v>
       </c>
       <c r="V277" t="n">
-        <v>0.350296825170517</v>
+        <v>0.5070371627807617</v>
       </c>
       <c r="W277" t="n">
-        <v>0.02870456129312515</v>
+        <v>0.0001608805177966133</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5819978713989258</v>
       </c>
       <c r="V278" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.8640827536582947</v>
       </c>
       <c r="W278" t="n">
-        <v>0.05467679351568222</v>
+        <v>0.07957188040018082</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.52565598487854</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.8701727390289307</v>
       </c>
       <c r="W279" t="n">
-        <v>0.02400005236268044</v>
+        <v>0.1186917945742607</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5217568874359131</v>
       </c>
       <c r="V280" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.5168694257736206</v>
       </c>
       <c r="W280" t="n">
-        <v>0.180209755897522</v>
+        <v>2.38872817135416e-05</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5200741291046143</v>
       </c>
       <c r="V281" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.8865704536437988</v>
       </c>
       <c r="W281" t="n">
-        <v>0.06897945702075958</v>
+        <v>0.1343195587396622</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.3997402191162109</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8613890409469604</v>
       </c>
       <c r="W282" t="n">
-        <v>0.05872490629553795</v>
+        <v>0.2131196409463882</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3985359668731689</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.5014784932136536</v>
       </c>
       <c r="W283" t="n">
-        <v>0.002486777491867542</v>
+        <v>0.01059716381132603</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3998808860778809</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4010052084922791</v>
       </c>
       <c r="W284" t="n">
-        <v>0.004410593770444393</v>
+        <v>1.264100887965469e-06</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3987290859222412</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8658120036125183</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1639373153448105</v>
+        <v>0.2181664556264877</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3982019424438477</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.5001151561737061</v>
       </c>
       <c r="W286" t="n">
-        <v>0.02050311118364334</v>
+        <v>0.01038630306720734</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3971350193023682</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8610080480575562</v>
       </c>
       <c r="W287" t="n">
-        <v>0.02671886421740055</v>
+        <v>0.2151781916618347</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.396536111831665</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4226458072662354</v>
       </c>
       <c r="W288" t="n">
-        <v>5.067464371677488e-05</v>
+        <v>0.000681716192048043</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4056761264801025</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.3975418210029602</v>
       </c>
       <c r="W289" t="n">
-        <v>0.009651265107095242</v>
+        <v>6.616692553507164e-05</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4446420669555664</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.3972100019454956</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06374219059944153</v>
+        <v>0.002249800832942128</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3968877792358398</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.8697309494018555</v>
       </c>
       <c r="W291" t="n">
-        <v>0.002125404309481382</v>
+        <v>0.2235806584358215</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.398813009262085</v>
       </c>
       <c r="V292" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.51665198802948</v>
       </c>
       <c r="W292" t="n">
-        <v>0.29567551612854</v>
+        <v>0.01388602517545223</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.397514820098877</v>
       </c>
       <c r="V293" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4968579113483429</v>
       </c>
       <c r="W293" t="n">
-        <v>0.002183401491492987</v>
+        <v>0.009869050234556198</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3943510055541992</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.5077360868453979</v>
       </c>
       <c r="W294" t="n">
-        <v>8.568025077693164e-05</v>
+        <v>0.01285617705434561</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3956589698791504</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4997296631336212</v>
       </c>
       <c r="W295" t="n">
-        <v>0.02123643830418587</v>
+        <v>0.01083070877939463</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.448112964630127</v>
       </c>
       <c r="V296" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4036285579204559</v>
       </c>
       <c r="W296" t="n">
-        <v>0.004415744915604591</v>
+        <v>0.001978862332180142</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.405472993850708</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8858212828636169</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01590949483215809</v>
+        <v>0.2307344824075699</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3981130123138428</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.4035757780075073</v>
       </c>
       <c r="W298" t="n">
-        <v>3.108097007498145e-05</v>
+        <v>2.984180900966749e-05</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3922698497772217</v>
       </c>
       <c r="V299" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.3993613421916962</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0002853220794349909</v>
+        <v>5.028926534578204e-05</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3984370231628418</v>
       </c>
       <c r="V300" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.5168460607528687</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0007694019004702568</v>
+        <v>0.01402070000767708</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982150554656982</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.3980862200260162</v>
       </c>
       <c r="W301" t="n">
-        <v>0.09009469300508499</v>
+        <v>1.65985696298776e-08</v>
       </c>
     </row>
     <row r="302" spans="1:23">
